--- a/The Movies Dataset/Movies_small_metadata.xlsx
+++ b/The Movies Dataset/Movies_small_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Becode_Projects\Movie-Recommendation-System\The Movies Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAEF17F7-DEFF-43F0-B0C8-55C200585C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E9E181-4693-4167-8FD8-7B21A84994C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F864C3A6-CEE3-4F8C-A4A0-18AF14678293}"/>
   </bookViews>
@@ -10093,8 +10093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23955BB0-2FDA-4951-97D6-4CD71AACC889}">
   <dimension ref="A1:P1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
